--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501886.7986144004</v>
+        <v>505206.3448873051</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.2037313894189</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>141.3109152734908</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.16030022554292</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>109.6205003900232</v>
+        <v>15.12465498127749</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,64 +1142,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="X8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="G8" t="n">
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,13 +1212,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>153.2418220378557</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,13 +1449,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>14.48693373137008</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>152.6562894669719</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>205.5178444382804</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1692,10 +1692,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>113.5105699231849</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>15.22583387730336</v>
       </c>
       <c r="Y15" t="n">
         <v>205.5178444382804</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>31.69844046683744</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,64 +2084,64 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>232.3303155802433</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2163,25 +2163,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>3.839869650691945</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>45.22260214104617</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,73 +2318,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>83.03189205754171</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>125.1456920076454</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>88.93311775391584</v>
       </c>
       <c r="I26" t="n">
-        <v>100.3796369526212</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -2597,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2637,22 +2637,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>87.95566939920795</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>67.26859421163454</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,11 +2789,11 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
@@ -2801,64 +2801,64 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>71.01467844038824</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>94.48766447978133</v>
       </c>
       <c r="T30" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.809496073036132</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>48.57345760946043</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,61 +3275,61 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>81.00537765493296</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>130.3447523620509</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,13 +3396,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>90.78668401116066</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>7.314269821847275</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>64.94703421617614</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3633,7 +3633,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,20 +3746,20 @@
         <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="I41" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>18.3727010817389</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>205.5178444382804</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4358,22 +4358,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9856669025954</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D3" t="n">
-        <v>157.0512572413442</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4410,49 +4410,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>578.163550049956</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>578.163550049956</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>370.5697677890668</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>370.5697677890668</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>162.9759855281775</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4571,46 +4571,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.81546818692397</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268.5413885648676</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="C6" t="n">
-        <v>268.5413885648676</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D6" t="n">
-        <v>268.5413885648676</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E6" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4647,16 +4647,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4674,22 +4674,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>436.7567255849356</v>
+        <v>532.2070744826585</v>
       </c>
       <c r="U6" t="n">
-        <v>436.7567255849356</v>
+        <v>532.2070744826585</v>
       </c>
       <c r="V6" t="n">
-        <v>436.7567255849356</v>
+        <v>532.2070744826585</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7567255849356</v>
+        <v>532.2070744826585</v>
       </c>
       <c r="X6" t="n">
-        <v>436.7567255849356</v>
+        <v>532.2070744826585</v>
       </c>
       <c r="Y6" t="n">
-        <v>436.7567255849356</v>
+        <v>324.6132922217692</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4811,7 +4811,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4832,22 +4832,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>499.0663215028962</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C9" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
         <v>16.44142755506243</v>
@@ -4884,22 +4884,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>626.8294255367553</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4914,19 +4914,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>667.2816585229643</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y9" t="n">
-        <v>667.2816585229643</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5018,25 +5018,25 @@
         <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5048,13 +5048,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5066,16 +5066,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W11" t="n">
         <v>614.4775954922324</v>
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.07469395038575</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>170.639699743923</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>170.639699743923</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5127,7 +5127,7 @@
         <v>163.1080096386462</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
         <v>366.5706756325438</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X12" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.2900309704538</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="C14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="G14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="H14" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5285,43 +5285,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W14" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X14" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="Y14" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>430.88262829307</v>
       </c>
       <c r="C15" t="n">
-        <v>440.0245662111054</v>
+        <v>256.4295990119429</v>
       </c>
       <c r="D15" t="n">
-        <v>291.0901565498541</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E15" t="n">
-        <v>131.8527015443986</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5358,19 +5358,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5397,10 +5397,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>806.6917475740273</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>599.097965313138</v>
       </c>
     </row>
     <row r="16">
@@ -5431,10 +5431,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,16 +5598,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>51.29976984439196</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5701,19 +5701,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>512.8480801015824</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C21" t="n">
-        <v>512.8480801015824</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="D21" t="n">
-        <v>512.8480801015824</v>
+        <v>178.3296748047002</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>178.3296748047002</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>178.3296748047002</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X21" t="n">
-        <v>720.6083788665362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y21" t="n">
-        <v>512.8480801015824</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>259.0600686093459</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C24" t="n">
-        <v>259.0600686093459</v>
+        <v>103.1517411481337</v>
       </c>
       <c r="D24" t="n">
-        <v>259.0600686093459</v>
+        <v>103.1517411481337</v>
       </c>
       <c r="E24" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>259.0600686093459</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>259.0600686093459</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="25">
@@ -6178,16 +6178,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
         <v>829.5248650203655</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.1934816808115</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C26" t="n">
-        <v>132.7447050367114</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D26" t="n">
-        <v>132.7447050367114</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E26" t="n">
-        <v>132.7447050367114</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F26" t="n">
-        <v>132.7447050367114</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G26" t="n">
-        <v>132.7447050367114</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="H26" t="n">
-        <v>132.7447050367114</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
         <v>31.35113235729608</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U26" t="n">
-        <v>376.1934816808115</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V26" t="n">
-        <v>376.1934816808115</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W26" t="n">
-        <v>376.1934816808115</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X26" t="n">
-        <v>376.1934816808115</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y26" t="n">
-        <v>376.1934816808115</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2968567456824</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="C27" t="n">
-        <v>756.2968567456824</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="D27" t="n">
-        <v>667.4527462414319</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>87.22921807145974</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6312,43 +6312,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>246.4666730769152</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6400,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>868.6150701775238</v>
       </c>
       <c r="T30" t="n">
-        <v>846.5570557448675</v>
+        <v>868.6150701775238</v>
       </c>
       <c r="U30" t="n">
-        <v>846.5570557448675</v>
+        <v>868.6150701775238</v>
       </c>
       <c r="V30" t="n">
-        <v>846.5570557448675</v>
+        <v>868.6150701775238</v>
       </c>
       <c r="W30" t="n">
-        <v>603.1082791007675</v>
+        <v>868.6150701775238</v>
       </c>
       <c r="X30" t="n">
-        <v>395.2567788952347</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.4964801302808</v>
+        <v>453.003271207037</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>962.2293816994886</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>962.2293816994886</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V32" t="n">
-        <v>962.2293816994886</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W32" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>512.8480801015824</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6789,7 +6789,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6819,10 +6819,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y33" t="n">
-        <v>512.8480801015824</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>456.7918502977974</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C36" t="n">
-        <v>282.3388210166704</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D36" t="n">
-        <v>133.4044113554191</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E36" t="n">
-        <v>133.4044113554191</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>133.4044113554191</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>698.9360897379105</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>698.9360897379105</v>
       </c>
       <c r="V36" t="n">
-        <v>588.4532163200711</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="W36" t="n">
-        <v>588.4532163200711</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="X36" t="n">
-        <v>588.4532163200711</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y36" t="n">
-        <v>588.4532163200711</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="37">
@@ -7111,31 +7111,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.5233881080029</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C39" t="n">
-        <v>279.5233881080029</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="D39" t="n">
-        <v>279.5233881080029</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="E39" t="n">
-        <v>279.5233881080029</v>
+        <v>322.4725277437814</v>
       </c>
       <c r="F39" t="n">
-        <v>272.1352367728036</v>
+        <v>175.9379697706663</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>175.9379697706663</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7260,7 +7260,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7281,22 +7281,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.5233881080029</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="C41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="D41" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="C41" t="n">
+      <c r="E41" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="D41" t="n">
+      <c r="F41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="G41" t="n">
         <v>406.8838132313431</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="F41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H41" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7412,19 +7412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7448,13 +7448,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>220.1101922903266</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7494,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7530,10 +7530,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>595.919311571284</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y42" t="n">
-        <v>388.3255293103946</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
         <v>224.0352098159517</v>
@@ -7655,13 +7655,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7673,25 +7673,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7728,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7755,22 +7755,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,10 +8228,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8459,10 +8459,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,16 +8696,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8775,10 +8775,10 @@
         <v>160.0786444523452</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,10 +9255,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>303.774711870172</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9489,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9969,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,10 +10437,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,10 +11072,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,7 +11142,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>335.768472927719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,13 +11151,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,16 +11303,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>154.8597658442563</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,19 +22623,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>18.44134906598205</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>30.37225583034706</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>361.5735414379376</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22826,10 +22826,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22841,10 +22841,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22860,25 +22860,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22914,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>90.54422830479845</v>
+        <v>185.0400737135441</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22945,7 +22945,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>18.14994616795084</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>44.53299916777313</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,13 +23030,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23072,7 +23072,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972316</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23100,13 +23100,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>158.2215652569457</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23154,16 +23154,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>52.53116316562176</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,13 +23258,13 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>212.8595420456369</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23279,7 +23279,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,13 +23337,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>158.2215652569457</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>4.988790988429002</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23397,10 +23397,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>159.7550473327271</v>
@@ -23510,10 +23510,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117765</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23580,10 +23580,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>31.55864247019893</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23592,7 +23592,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23637,7 +23637,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>190.5471513261741</v>
       </c>
       <c r="Y15" t="n">
         <v>0.1648513390239543</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26350734189029</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>134.8347431830299</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23868,16 +23868,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23941,7 +23941,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,16 +23972,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>122.3527260404397</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,19 +24017,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24051,25 +24051,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>153.805210804709</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>92.12091502216447</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,25 +24096,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24184,13 +24184,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,13 +24206,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24257,22 +24257,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,22 +24285,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>74.61318839785923</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>12.19782515556528</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24458,10 +24458,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>250.5416843618513</v>
       </c>
       <c r="I26" t="n">
-        <v>110.0962526177847</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24485,13 +24485,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24525,22 +24525,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>59.4893961654308</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>77.80061818174934</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,16 +24579,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,19 +24689,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,10 +24722,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24777,10 +24777,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>77.19550662405649</v>
       </c>
       <c r="T30" t="n">
-        <v>83.83962992671059</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,7 +24819,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,16 +24926,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,10 +24965,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>207.2105735132092</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>98.87160795517832</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25059,7 +25059,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,19 +25163,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>325.8706680867785</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,13 +25211,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36.1884312878164</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,13 +25284,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>109.3780446836609</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25476,19 +25476,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>137.7549425715366</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>47.28841002032033</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25634,19 +25634,19 @@
         <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,10 +25722,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25770,7 +25770,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4002841217386</v>
+        <v>158.4767060221428</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,7 +25874,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>209.7848930768546</v>
@@ -25913,7 +25913,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>215.208520489361</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25950,7 +25950,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>143.1581467240309</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25995,22 +25995,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457497.161321302</v>
+        <v>457497.1613213022</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457497.1613213021</v>
+        <v>457497.161321302</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457497.1613213022</v>
+        <v>457497.1613213021</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94654.58510095898</v>
+        <v>94654.58510095897</v>
       </c>
       <c r="C2" t="n">
-        <v>94654.58510095895</v>
+        <v>94654.58510095901</v>
       </c>
       <c r="D2" t="n">
         <v>94654.58510095897</v>
       </c>
       <c r="E2" t="n">
-        <v>94654.585100959</v>
+        <v>94654.58510095898</v>
       </c>
       <c r="F2" t="n">
-        <v>94654.58510095898</v>
+        <v>94654.58510095895</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>94654.585100959</v>
+        <v>94654.58510095898</v>
       </c>
       <c r="P2" t="n">
         <v>94654.58510095898</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195923</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20883.7094003979</v>
+        <v>-20496.06798151155</v>
       </c>
       <c r="C6" t="n">
-        <v>47990.04718129192</v>
+        <v>48377.68860017834</v>
       </c>
       <c r="D6" t="n">
-        <v>47990.04718129193</v>
+        <v>48377.68860017829</v>
       </c>
       <c r="E6" t="n">
-        <v>81617.64718129196</v>
+        <v>82005.2886001783</v>
       </c>
       <c r="F6" t="n">
-        <v>81617.64718129195</v>
+        <v>82005.28860017828</v>
       </c>
       <c r="G6" t="n">
-        <v>74725.58611072339</v>
+        <v>75134.15928316666</v>
       </c>
       <c r="H6" t="n">
-        <v>84454.62908489042</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="I6" t="n">
-        <v>84454.62908489043</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="J6" t="n">
-        <v>30682.118194681</v>
+        <v>31090.69136712431</v>
       </c>
       <c r="K6" t="n">
-        <v>84454.62908489043</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="L6" t="n">
-        <v>84454.62908489045</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="M6" t="n">
-        <v>84454.62908489046</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="N6" t="n">
-        <v>84454.62908489046</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="O6" t="n">
-        <v>81617.64718129196</v>
+        <v>82005.2886001783</v>
       </c>
       <c r="P6" t="n">
-        <v>81617.64718129195</v>
+        <v>82005.2886001783</v>
       </c>
     </row>
   </sheetData>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N3" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,10 +34948,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,10 +35179,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,16 +35416,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>21.52426467247106</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35653,16 +35653,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35896,7 +35896,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35966,7 +35966,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,10 +35975,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>161.1784674257276</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,7 +36209,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36680,7 +36680,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36689,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37628,10 +37628,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,10 +37792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,13 +37871,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,16 +38023,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505206.3448873051</v>
+        <v>505990.4908253339</v>
       </c>
     </row>
     <row r="7">
@@ -656,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C2" t="n">
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>141.3109152734908</v>
+        <v>80.86228322859418</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -978,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,10 +1028,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>15.12465498127749</v>
+        <v>117.8361325871478</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>110.9174757594852</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>85.67483542760212</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1370,13 +1372,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1451,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>152.6562894669719</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1467,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>29.7037198393344</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1604,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1704,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>15.22583387730336</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1862,10 +1864,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>190.3453970742847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1983,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2123,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>45.22260214104617</v>
+        <v>33.19332575419072</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,14 +2317,14 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,13 +2402,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>83.03189205754171</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2454,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>58.64979434929906</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,10 +2557,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>88.93311775391584</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2634,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>67.26859421163454</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>83.03189205754171</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>89.18947935324522</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>94.48766447978133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,73 +3028,73 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3351,22 +3353,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>41.6227610156345</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,19 +3398,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>90.78668401116066</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>64.94703421617614</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3633,7 +3635,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>90.36004757168708</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>181.0201173812374</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>17.62610975548109</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4358,22 +4360,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4413,19 +4415,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>232.5025681519757</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>578.163550049956</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T3" t="n">
-        <v>578.163550049956</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>370.5697677890668</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V3" t="n">
-        <v>370.5697677890668</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4571,13 +4573,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>324.6132922217692</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="C6" t="n">
-        <v>324.6132922217692</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="D6" t="n">
-        <v>175.6788825605179</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4656,13 +4658,13 @@
         <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4674,22 +4676,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>532.2070744826585</v>
+        <v>428.4581072040016</v>
       </c>
       <c r="U6" t="n">
-        <v>532.2070744826585</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="V6" t="n">
-        <v>532.2070744826585</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="W6" t="n">
-        <v>532.2070744826585</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="X6" t="n">
-        <v>532.2070744826585</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="Y6" t="n">
-        <v>324.6132922217692</v>
+        <v>220.8643249431123</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4722,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4811,10 +4813,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4841,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.07469395038575</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4887,46 +4889,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U9" t="n">
-        <v>614.4775954922324</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W9" t="n">
-        <v>406.8838132313431</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X9" t="n">
-        <v>199.2900309704538</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C11" t="n">
         <v>199.2900309704538</v>
@@ -5024,19 +5026,19 @@
         <v>199.2900309704538</v>
       </c>
       <c r="E11" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F11" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H11" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5048,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5066,16 +5068,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
         <v>614.4775954922324</v>
@@ -5084,7 +5086,7 @@
         <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>345.09272902505</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C12" t="n">
-        <v>170.639699743923</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D12" t="n">
-        <v>170.639699743923</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,7 +5126,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
         <v>366.5706756325438</v>
@@ -5148,22 +5150,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>690.8980908925382</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>483.304308631649</v>
       </c>
       <c r="V12" t="n">
-        <v>720.9018483060073</v>
+        <v>275.7105263707597</v>
       </c>
       <c r="W12" t="n">
-        <v>720.9018483060073</v>
+        <v>275.7105263707597</v>
       </c>
       <c r="X12" t="n">
-        <v>720.9018483060073</v>
+        <v>275.7105263707597</v>
       </c>
       <c r="Y12" t="n">
-        <v>513.308066045118</v>
+        <v>275.7105263707597</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>639.2227743377304</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C14" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D14" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V14" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>430.88262829307</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>256.4295990119429</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,46 +5363,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X15" t="n">
-        <v>806.6917475740273</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y15" t="n">
-        <v>599.097965313138</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6192102101089</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>327.2640844659515</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C21" t="n">
-        <v>327.2640844659515</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D21" t="n">
-        <v>178.3296748047002</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E21" t="n">
-        <v>178.3296748047002</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F21" t="n">
-        <v>178.3296748047002</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>327.2640844659515</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>327.2640844659515</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y21" t="n">
-        <v>327.2640844659515</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="22">
@@ -5935,19 +5937,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>251.810259228364</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X23" t="n">
-        <v>738.7078125165641</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y23" t="n">
-        <v>495.259035872464</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>277.6047704292607</v>
+        <v>489.203140025706</v>
       </c>
       <c r="C24" t="n">
-        <v>103.1517411481337</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D24" t="n">
-        <v>103.1517411481337</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6074,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6102,16 +6104,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>904.8149389961927</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>696.9634387906599</v>
       </c>
       <c r="Y24" t="n">
-        <v>277.6047704292607</v>
+        <v>489.203140025706</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>246.4666730769152</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>87.22921807145974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6314,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>454.3181732824481</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>454.3181732824481</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>246.4666730769152</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y27" t="n">
-        <v>246.4666730769152</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6500,13 +6502,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.787934186969</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>868.6150701775238</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>868.6150701775238</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>868.6150701775238</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>868.6150701775238</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W30" t="n">
-        <v>868.6150701775238</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X30" t="n">
-        <v>660.7635699719909</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y30" t="n">
-        <v>453.003271207037</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6683,7 +6685,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6785,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>512.7568786610034</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>304.9965798960495</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6883,19 +6885,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
         <v>829.5248650203655</v>
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>463.7839815061678</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="C36" t="n">
-        <v>463.7839815061678</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7839815061678</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>698.9360897379105</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>698.9360897379105</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>463.7839815061678</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W36" t="n">
-        <v>463.7839815061678</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X36" t="n">
-        <v>463.7839815061678</v>
+        <v>152.3780978509273</v>
       </c>
       <c r="Y36" t="n">
-        <v>463.7839815061678</v>
+        <v>152.3780978509273</v>
       </c>
     </row>
     <row r="37">
@@ -7111,31 +7113,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>322.4725277437814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>175.9379697706663</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>175.9379697706663</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7260,7 +7262,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7281,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>689.4702815141908</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y39" t="n">
-        <v>481.7099827492369</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="40">
@@ -7360,16 +7362,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
         <v>829.5248650203655</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F41" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H41" t="n">
         <v>199.2900309704538</v>
@@ -7412,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7442,19 +7444,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,13 +7496,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
         <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
         <v>570.0333416264414</v>
@@ -7530,10 +7532,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7673,25 +7675,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7758,19 +7760,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -8061,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8304,16 +8306,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,13 +8461,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -9009,13 +9011,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>279.489774794024</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,19 +9722,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9960,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,16 +11144,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O42" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22598,19 +22600,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22635,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22674,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>30.37225583034706</v>
+        <v>90.82088787524364</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22683,7 +22685,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D5" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22844,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22866,10 +22868,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,10 +22916,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>185.0400737135441</v>
+        <v>82.3285961076738</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>44.53299916777313</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972316</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,22 +23099,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>158.2215652569457</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>61.77023013703663</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23258,13 +23260,13 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>212.8595420456369</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,13 +23339,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>4.988790988429002</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23355,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,13 +23390,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>170.4610088554872</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,10 +23512,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23549,7 +23551,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>198.7016825117765</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23571,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>46.48311134337176</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23592,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>190.5471513261741</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23750,10 +23752,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>20.13049249612121</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23969,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24034,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24060,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>92.12091502216447</v>
+        <v>104.1501914090199</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>130.1411825545859</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24263,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,13 +24290,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>74.61318839785923</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24342,16 +24344,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>193.0451888116206</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24418,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,10 +24445,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>250.5416843618513</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24522,16 +24524,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>77.80061818174934</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>122.6508037197626</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>83.51901963507052</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24777,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>77.19550662405649</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24824,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24965,22 +24967,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>56.38340022020472</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>83.55624250011644</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25044,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25123,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25239,22 +25241,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>70.61268322086197</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,19 +25286,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>109.3780446836609</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,31 +25390,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>47.28841002032033</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25533,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>115.4129376317904</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25640,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>29.45577218916847</v>
@@ -25682,13 +25684,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>155.0823892328347</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25770,7 +25772,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>158.4767060221428</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,7 +25879,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25913,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>37.99065141955279</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25950,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>143.1581467240309</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457497.1613213021</v>
+        <v>457497.161321302</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457497.1613213021</v>
+        <v>457497.161321302</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457497.1613213021</v>
+        <v>457497.161321302</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457497.1613213021</v>
+        <v>457497.1613213022</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>94654.58510095897</v>
       </c>
       <c r="C2" t="n">
-        <v>94654.58510095901</v>
+        <v>94654.58510095898</v>
       </c>
       <c r="D2" t="n">
+        <v>94654.585100959</v>
+      </c>
+      <c r="E2" t="n">
+        <v>94654.58510095894</v>
+      </c>
+      <c r="F2" t="n">
         <v>94654.58510095897</v>
       </c>
-      <c r="E2" t="n">
-        <v>94654.58510095898</v>
-      </c>
-      <c r="F2" t="n">
-        <v>94654.58510095895</v>
-      </c>
       <c r="G2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="H2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="N2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="O2" t="n">
-        <v>94654.58510095898</v>
+        <v>94654.58510095897</v>
       </c>
       <c r="P2" t="n">
-        <v>94654.58510095898</v>
+        <v>94654.58510095895</v>
       </c>
     </row>
     <row r="3">
@@ -26433,7 +26435,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
         <v>179.5324977039669</v>
@@ -26522,46 +26524,46 @@
         <v>-20496.06798151155</v>
       </c>
       <c r="C6" t="n">
-        <v>48377.68860017834</v>
+        <v>48377.68860017831</v>
       </c>
       <c r="D6" t="n">
-        <v>48377.68860017829</v>
+        <v>48377.68860017832</v>
       </c>
       <c r="E6" t="n">
-        <v>82005.2886001783</v>
+        <v>82005.28860017826</v>
       </c>
       <c r="F6" t="n">
-        <v>82005.28860017828</v>
+        <v>82005.28860017829</v>
       </c>
       <c r="G6" t="n">
-        <v>75134.15928316666</v>
+        <v>75134.15928316661</v>
       </c>
       <c r="H6" t="n">
+        <v>84863.20225733376</v>
+      </c>
+      <c r="I6" t="n">
         <v>84863.20225733372</v>
-      </c>
-      <c r="I6" t="n">
-        <v>84863.20225733373</v>
       </c>
       <c r="J6" t="n">
         <v>31090.69136712431</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="L6" t="n">
         <v>84863.20225733375</v>
       </c>
       <c r="M6" t="n">
+        <v>84863.20225733373</v>
+      </c>
+      <c r="N6" t="n">
         <v>84863.20225733375</v>
       </c>
-      <c r="N6" t="n">
-        <v>84863.20225733373</v>
-      </c>
       <c r="O6" t="n">
-        <v>82005.2886001783</v>
+        <v>82005.28860017829</v>
       </c>
       <c r="P6" t="n">
-        <v>82005.2886001783</v>
+        <v>82005.28860017828</v>
       </c>
     </row>
   </sheetData>
@@ -34781,10 +34783,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35024,16 +35026,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,10 +35494,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M12" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="M12" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>148.1480627106907</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36680,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37789,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505990.4908253339</v>
+        <v>401757.9925618906</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="X2" t="n">
         <v>205.5178444382804</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>80.86228322859418</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
@@ -803,7 +803,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>181.0201173812374</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>117.8361325871478</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>86.21539897205304</v>
+      </c>
+      <c r="W6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>85.67483542760212</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>29.7037198393344</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>205.5178444382804</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>8.590354951141759</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>205.5178444382804</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1988,7 +1988,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>152.2207240410305</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>33.19332575419072</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>58.64979434929906</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2490,49 +2490,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,26 +2554,26 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>78.94281254009715</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>83.03189205754171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,58 +2712,58 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="30">
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>89.18947935324522</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>241.0142888776591</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>162.4417619616646</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>41.6227610156345</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,73 +3505,73 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>90.36004757168708</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3784,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>17.62610975548109</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3836,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C44" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>62.04017698392174</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4336,7 +4336,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="U2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="V2" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="W2" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="V2" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="W2" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="X2" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4412,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>639.2227743377304</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>431.628992076841</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>224.0352098159517</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
         <v>16.44142755506243</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X5" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.2900309704538</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4673,25 +4673,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>428.4581072040016</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U6" t="n">
-        <v>220.8643249431123</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V6" t="n">
-        <v>220.8643249431123</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W6" t="n">
-        <v>220.8643249431123</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>110.7436296931158</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F8" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4807,16 +4807,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.4845037566762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>547.4845037566762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>460.9442659510175</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4889,46 +4889,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>752.1869855945927</v>
       </c>
-      <c r="O9" t="n">
-        <v>822.0713777531216</v>
-      </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>547.4845037566762</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V9" t="n">
-        <v>547.4845037566762</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W9" t="n">
-        <v>547.4845037566762</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X9" t="n">
-        <v>547.4845037566762</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>547.4845037566762</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,46 +5126,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M12" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M12" t="n">
-        <v>366.5706756325438</v>
-      </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>690.8980908925382</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U12" t="n">
-        <v>483.304308631649</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V12" t="n">
-        <v>275.7105263707597</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W12" t="n">
-        <v>275.7105263707597</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>275.7105263707597</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
-        <v>275.7105263707597</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5181,25 +5181,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
         <v>16.44142755506243</v>
@@ -5287,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,46 +5363,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M15" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N15" t="n">
-        <v>435.9652341458732</v>
-      </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>639.976906990516</v>
       </c>
       <c r="U15" t="n">
-        <v>345.2979091154422</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="V15" t="n">
-        <v>345.2979091154422</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W15" t="n">
-        <v>137.7041268545529</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X15" t="n">
-        <v>137.7041268545529</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y15" t="n">
-        <v>137.7041268545529</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5463,25 +5463,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5703,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V20" t="n">
-        <v>591.4512093066566</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W20" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C21" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D21" t="n">
-        <v>257.2326523711826</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E21" t="n">
-        <v>257.2326523711826</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>257.2326523711826</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,16 +5837,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5864,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y21" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="22">
@@ -5937,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>587.3248651012614</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U23" t="n">
-        <v>587.3248651012614</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>489.203140025706</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>314.750110744579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>904.8149389961927</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>696.9634387906599</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>489.203140025706</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6180,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>237.752183214564</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>99.02135779717955</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X27" t="n">
-        <v>277.6047704292607</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="28">
@@ -6411,25 +6411,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6448,10 +6448,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,28 +6484,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y29" t="n">
         <v>506.1786963984129</v>
@@ -6521,25 +6521,25 @@
         <v>259.0600686093459</v>
       </c>
       <c r="C30" t="n">
-        <v>168.9696854242497</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,16 +6551,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E35" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6973,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X35" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>152.3780978509273</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C36" t="n">
-        <v>152.3780978509273</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D36" t="n">
-        <v>152.3780978509273</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E36" t="n">
-        <v>152.3780978509273</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F36" t="n">
-        <v>152.3780978509273</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>152.3780978509273</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>360.2295980564601</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>360.2295980564601</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X36" t="n">
-        <v>152.3780978509273</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y36" t="n">
-        <v>152.3780978509273</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="37">
@@ -7134,7 +7134,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>396.0109115480204</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>188.2506127830665</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7423,40 +7423,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V41" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W41" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X41" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E44" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7657,13 +7657,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7672,28 +7672,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y44" t="n">
-        <v>604.3859801240053</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>450.6412206068132</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>450.6412206068132</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7736,10 +7736,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
         <v>822.0713777531216</v>
@@ -7751,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M2" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
@@ -8306,16 +8306,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8546,13 +8546,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9011,13 +9011,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,13 +9248,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,7 +9485,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,10 +9494,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>369.031319612638</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>292.5201795090609</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
-        <v>292.5201795090609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11071,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11384,13 +11384,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>212.7243290316435</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22552,10 +22552,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,16 +22600,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>178.2115505507205</v>
       </c>
       <c r="X2" t="n">
         <v>164.2132562401886</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>64.20692916478961</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22676,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>90.82088787524364</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
@@ -22691,7 +22691,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,22 +22913,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>82.3285961076738</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>146.5851881773722</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22962,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23105,16 +23105,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>61.77023013703663</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>170.4610088554872</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23551,7 +23551,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
         <v>180.7200942177732</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>46.48311134337176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>191.5743737436798</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>46.1771387226392</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>280.8531039918463</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24053,25 +24053,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>5.424356414370465</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>104.1501914090199</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24104,10 +24104,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24226,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>130.1411825545859</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24341,13 +24341,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>193.0451888116206</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24496,10 +24496,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,13 +24533,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>122.6508037197626</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24739,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>333.812370168306</v>
       </c>
     </row>
     <row r="30">
@@ -24761,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>83.51901963507052</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>24.723995595589</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>269.1307943144919</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>10.33136403017744</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25001,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>83.55624250011644</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25055,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>70.35882518776066</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25125,10 +25125,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25156,19 +25156,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25213,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25244,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>70.61268322086197</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>115.4129376317904</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25648,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>365.0776384305107</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>155.0823892328347</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25724,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>196.4360389260779</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>194.2434736043149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7700698467189</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>104.4930066659456</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>24.75286782224003</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457497.161321302</v>
+        <v>457497.1613213021</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457497.1613213022</v>
+        <v>457497.1613213021</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457497.161321302</v>
+        <v>457497.1613213021</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457497.161321302</v>
+        <v>457497.1613213021</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457497.161321302</v>
+        <v>457497.1613213021</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457497.1613213022</v>
+        <v>457497.1613213021</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>94654.58510095898</v>
+      </c>
+      <c r="C2" t="n">
         <v>94654.58510095897</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>94654.58510095898</v>
       </c>
-      <c r="D2" t="n">
-        <v>94654.585100959</v>
-      </c>
       <c r="E2" t="n">
-        <v>94654.58510095894</v>
+        <v>94654.58510095895</v>
       </c>
       <c r="F2" t="n">
-        <v>94654.58510095897</v>
+        <v>94654.58510095898</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="L2" t="n">
-        <v>99696.40351879939</v>
-      </c>
       <c r="M2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
-        <v>94654.58510095897</v>
+        <v>94654.58510095901</v>
       </c>
       <c r="P2" t="n">
-        <v>94654.58510095895</v>
+        <v>94654.58510095898</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20496.06798151155</v>
+        <v>-33134.23013637204</v>
       </c>
       <c r="C6" t="n">
-        <v>48377.68860017831</v>
+        <v>35739.52644531779</v>
       </c>
       <c r="D6" t="n">
-        <v>48377.68860017832</v>
+        <v>35739.5264453178</v>
       </c>
       <c r="E6" t="n">
-        <v>82005.28860017826</v>
+        <v>69367.12644531777</v>
       </c>
       <c r="F6" t="n">
-        <v>82005.28860017829</v>
+        <v>69367.1264453178</v>
       </c>
       <c r="G6" t="n">
-        <v>75134.15928316661</v>
+        <v>62916.14866312619</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733376</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="J6" t="n">
-        <v>31090.69136712431</v>
+        <v>18872.68074708384</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="O6" t="n">
-        <v>82005.28860017829</v>
+        <v>69367.12644531783</v>
       </c>
       <c r="P6" t="n">
-        <v>82005.28860017828</v>
+        <v>69367.1264453178</v>
       </c>
     </row>
   </sheetData>
@@ -34704,10 +34704,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M2" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
@@ -35026,16 +35026,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35266,13 +35266,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N14" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N14" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,10 +36214,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>161.1784674257276</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38034,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
